--- a/база данных.xlsx
+++ b/база данных.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="ссылки" sheetId="1" r:id="rId1"/>
     <sheet name="стикеры" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
   <si>
     <t xml:space="preserve">название </t>
   </si>
@@ -71,6 +71,156 @@
   </si>
   <si>
     <t>CAACAgUAAxkBAAIBaGBjAAFXI5iewzT0_3s1wgABZdKc27QAAtcGAALMxuICrGPsKrIimiseBA</t>
+  </si>
+  <si>
+    <t>ссылка</t>
+  </si>
+  <si>
+    <t>джаз</t>
+  </si>
+  <si>
+    <t>https://music.apple.com/ru/playlist/сонный-джаз/pl.f31fb34cf8ad46f0a27c960fa805cc4c</t>
+  </si>
+  <si>
+    <t>рок</t>
+  </si>
+  <si>
+    <t>https://music.apple.com/ru/playlist/пульс-рока/pl.aea893d092ed40a393d217ced33bde62</t>
+  </si>
+  <si>
+    <t>инди</t>
+  </si>
+  <si>
+    <t>https://music.apple.com/ru/playlist/под-звездным-небом/pl.cd1e46899e31421285d7e655bac51cbd</t>
+  </si>
+  <si>
+    <t>ключевое слово (жанр)</t>
+  </si>
+  <si>
+    <t>хип-хоп</t>
+  </si>
+  <si>
+    <t>классика</t>
+  </si>
+  <si>
+    <t>блюз</t>
+  </si>
+  <si>
+    <t>метал</t>
+  </si>
+  <si>
+    <t>ретро</t>
+  </si>
+  <si>
+    <t>регги</t>
+  </si>
+  <si>
+    <t>фолк</t>
+  </si>
+  <si>
+    <t>альтернатива</t>
+  </si>
+  <si>
+    <t>электроника</t>
+  </si>
+  <si>
+    <t>вечеринка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">хорошее настроение </t>
+  </si>
+  <si>
+    <t>сон</t>
+  </si>
+  <si>
+    <t>концентрация</t>
+  </si>
+  <si>
+    <t xml:space="preserve">спорт </t>
+  </si>
+  <si>
+    <t xml:space="preserve">спокойствие </t>
+  </si>
+  <si>
+    <t>романтика</t>
+  </si>
+  <si>
+    <t xml:space="preserve">меланхолия </t>
+  </si>
+  <si>
+    <t>мотивация</t>
+  </si>
+  <si>
+    <t>https://music.apple.com/ru/playlist/полная-концентрация/pl.a4e197979fc74b2a91b3cdf869f12aa5</t>
+  </si>
+  <si>
+    <t>https://music.apple.com/ru/playlist/только-тренировка/pl.ad0ee1557e3e4feba314fd70f7982766</t>
+  </si>
+  <si>
+    <t>https://music.apple.com/ru/playlist/только-умиротворение/pl.ffc344338c3d4ff394ddcf94d766c143</t>
+  </si>
+  <si>
+    <t>https://music.apple.com/ru/playlist/спокойный-сон/pl.f31a7e6b60ab4e0d995d837db65bbf00</t>
+  </si>
+  <si>
+    <t>https://music.apple.com/ru/playlist/только-мотивация/pl.047294ae14a24e5993d1f7ab2b127188</t>
+  </si>
+  <si>
+    <t>https://music.apple.com/ru/playlist/в-изоляции/pl.464c6868d80d4c0891e22568c234829f</t>
+  </si>
+  <si>
+    <t>https://music.apple.com/ru/playlist/любовь/pl.7d7525d9145c4aba9a6295753505c98d</t>
+  </si>
+  <si>
+    <t>https://music.apple.com/ru/playlist/хорошее-настроение/pl.10fc76a3edc14e759deb60535854e339</t>
+  </si>
+  <si>
+    <t>https://music.apple.com/ru/playlist/коктейльная-вечеринка/pl.d33b5bd820cf47ffb87889db225bd943</t>
+  </si>
+  <si>
+    <t>https://music.apple.com/ru/playlist/регги-вайб/pl.e75fb4f0f6f649a89f7c28ef4cc0442f</t>
+  </si>
+  <si>
+    <t>https://music.apple.com/ru/playlist/rap-life/pl.abe8ba42278f4ef490e3a9fc5ec8e8c5</t>
+  </si>
+  <si>
+    <t>https://music.apple.com/ru/playlist/бесконечный-бит/pl.4705ab1ed97c4f4bb54f48940faf5623</t>
+  </si>
+  <si>
+    <t>https://music.apple.com/ru/playlist/музыка-без-слов/pl.60280cd08f2e4e1fa2cfb27a8466f9c5</t>
+  </si>
+  <si>
+    <t>https://music.apple.com/ru/playlist/пульс-альтернативы/pl.132b9a231cbf464086b4f838b2726f94</t>
+  </si>
+  <si>
+    <t>https://music.apple.com/ru/playlist/блюз-с-большой-дороги/pl.a9faca07cf8f47e19f1819b0f5a2e765</t>
+  </si>
+  <si>
+    <t>https://music.apple.com/ru/playlist/motown-главное/pl.15378bf1b2624a56af9751390242a19d</t>
+  </si>
+  <si>
+    <t>https://music.apple.com/ru/playlist/новинки-поп-музыки/pl.5ee8333dbe944d9f9151e97d92d1ead9</t>
+  </si>
+  <si>
+    <t>поп</t>
+  </si>
+  <si>
+    <t>https://music.apple.com/ru/playlist/зловещее-звучание/pl.f72bb902f8684581bb26760069b50e43</t>
+  </si>
+  <si>
+    <t>https://music.apple.com/ru/playlist/экстремальный-метал/pl.1baada6675ca477cbe9946b3d21c5757</t>
+  </si>
+  <si>
+    <t>https://music.apple.com/ru/playlist/фолк-главное/pl.ced4e8788cab46e7982ba4a26e5211a7</t>
+  </si>
+  <si>
+    <t>https://music.apple.com/ru/playlist/проснись-и-вой/pl.937d9aefc9da498aaa627e7b62e318b4</t>
+  </si>
+  <si>
+    <t>панк рок</t>
+  </si>
+  <si>
+    <t>hard рок</t>
   </si>
 </sst>
 </file>
@@ -409,15 +559,217 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -425,13 +777,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
